--- a/single-span-one-way-slab.xlsx
+++ b/single-span-one-way-slab.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10812"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\itarlev\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/iura/Repos/structural_elements_comparison/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23D11931-D884-7B4B-BA11-7D9B5D4701C0}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="9765"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="19200" windowHeight="9760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,8 +33,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -342,16 +343,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+      <selection activeCell="I1" sqref="I1:J4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -376,14 +377,8 @@
       <c r="H1">
         <v>10</v>
       </c>
-      <c r="I1">
-        <v>11</v>
-      </c>
-      <c r="J1">
-        <v>12</v>
-      </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8">
       <c r="A2">
         <v>2.5</v>
       </c>
@@ -408,14 +403,8 @@
       <c r="H2">
         <v>430</v>
       </c>
-      <c r="I2">
-        <v>489</v>
-      </c>
-      <c r="J2">
-        <v>561</v>
-      </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8">
       <c r="A3">
         <v>5</v>
       </c>
@@ -440,11 +429,8 @@
       <c r="H3">
         <v>443</v>
       </c>
-      <c r="I3">
-        <v>510</v>
-      </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8">
       <c r="A4">
         <v>7.5</v>
       </c>
@@ -469,11 +455,8 @@
       <c r="H4">
         <v>470</v>
       </c>
-      <c r="I4">
-        <v>545</v>
-      </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8">
       <c r="A5">
         <v>10</v>
       </c>
